--- a/bin/heysdkproj.xlsx
+++ b/bin/heysdkproj.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>projpath</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>channelid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adtworkspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\zhs007\workspace-adt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -426,14 +434,15 @@
     <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="99.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -447,25 +456,28 @@
         <v>11</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -478,7 +490,10 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
